--- a/data/survey_participants.xlsx
+++ b/data/survey_participants.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -546,9 +546,80 @@
         <v>2025-08-17T14:45:08.894Z</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="str">
+        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" t="str">
+        <v>Nazirul Islam</v>
+      </c>
+      <c r="D3" s="1">
+        <v>20</v>
+      </c>
+      <c r="E3" t="str">
+        <v>Student</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Rural</v>
+      </c>
+      <c r="G3" t="str">
+        <v>Male</v>
+      </c>
+      <c r="H3" t="str">
+        <v>1</v>
+      </c>
+      <c r="I3" t="str">
+        <v>1</v>
+      </c>
+      <c r="J3" t="str">
+        <v>1</v>
+      </c>
+      <c r="K3" t="str">
+        <v>1</v>
+      </c>
+      <c r="L3" t="str">
+        <v>1</v>
+      </c>
+      <c r="M3" t="str">
+        <v>1</v>
+      </c>
+      <c r="N3" t="str">
+        <v>1</v>
+      </c>
+      <c r="O3" t="str">
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q3" t="str">
+        <v>1</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4</v>
+      </c>
+      <c r="S3" s="1">
+        <v>4</v>
+      </c>
+      <c r="T3" s="1">
+        <v>4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>4</v>
+      </c>
+      <c r="V3" s="1">
+        <v>4</v>
+      </c>
+      <c r="W3" t="str">
+        <v>2025-08-20T10:12:17.989Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W3"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/survey_participants.xlsx
+++ b/data/survey_participants.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -477,16 +477,16 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>79df3c11-89e3-41b8-b404-c856b173d2e5</v>
+        <v>985bad01-57bd-4504-a978-a951079ffbb3</v>
       </c>
       <c r="B2" s="1">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="str">
-        <v>test</v>
+        <v>test01</v>
       </c>
       <c r="D2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" t="str">
         <v>test</v>
@@ -510,19 +510,19 @@
         <v>1</v>
       </c>
       <c r="L2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M2" t="str">
         <v>1</v>
       </c>
       <c r="N2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O2" t="str">
         <v>1</v>
       </c>
       <c r="P2" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="str">
         <v>1</v>
@@ -531,39 +531,39 @@
         <v>4</v>
       </c>
       <c r="S2" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="T2" s="1">
         <v>4</v>
       </c>
       <c r="U2" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="V2" s="1">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="W2" t="str">
-        <v>2025-08-17T14:45:08.894Z</v>
+        <v>2025-08-20T18:11:19.830Z</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>7ba0664f-2dbb-4478-a4e2-ecf036a093ef</v>
+        <v>d42d52c3-f891-4cdc-ad58-bd1362ae0988</v>
       </c>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C3" t="str">
-        <v>Nazirul Islam</v>
+        <v>Halo User</v>
       </c>
       <c r="D3" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E3" t="str">
-        <v>Student</v>
+        <v>Test</v>
       </c>
       <c r="F3" t="str">
-        <v>Rural</v>
+        <v>Urban</v>
       </c>
       <c r="G3" t="str">
         <v>Male</v>
@@ -614,12 +614,83 @@
         <v>4</v>
       </c>
       <c r="W3" t="str">
-        <v>2025-08-20T10:12:17.989Z</v>
+        <v>2025-08-25T08:16:02.679Z</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>fd91c844-a3dc-408e-a577-17376e889a53</v>
+      </c>
+      <c r="B4" s="1">
+        <v>14</v>
+      </c>
+      <c r="C4" t="str">
+        <v>Nijum Test</v>
+      </c>
+      <c r="D4" s="1">
+        <v>26</v>
+      </c>
+      <c r="E4" t="str">
+        <v>ewiwi</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Urban</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Male</v>
+      </c>
+      <c r="H4" t="str">
+        <v>1</v>
+      </c>
+      <c r="I4" t="str">
+        <v>2</v>
+      </c>
+      <c r="J4" t="str">
+        <v>1</v>
+      </c>
+      <c r="K4" t="str">
+        <v>2</v>
+      </c>
+      <c r="L4" t="str">
+        <v>1</v>
+      </c>
+      <c r="M4" t="str">
+        <v>2</v>
+      </c>
+      <c r="N4" t="str">
+        <v>2</v>
+      </c>
+      <c r="O4" t="str">
+        <v>2</v>
+      </c>
+      <c r="P4" t="str">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="str">
+        <v>2</v>
+      </c>
+      <c r="R4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="S4" s="1">
+        <v>4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W4" t="str">
+        <v>2025-08-25T08:36:51.827Z</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W4"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/data/survey_participants.xlsx
+++ b/data/survey_participants.xlsx
@@ -399,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:W4"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -688,9 +688,222 @@
         <v>2025-08-25T08:36:51.827Z</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>d9d87957-a7f7-4656-bfa3-4c73cab42f24</v>
+      </c>
+      <c r="B5" s="1">
+        <v>15</v>
+      </c>
+      <c r="C5" t="str">
+        <v>Kamrul Islam</v>
+      </c>
+      <c r="D5" s="1">
+        <v>26</v>
+      </c>
+      <c r="E5" t="str">
+        <v>Product Manager</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Urban</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Male</v>
+      </c>
+      <c r="H5" t="str">
+        <v>4</v>
+      </c>
+      <c r="I5" t="str">
+        <v>1</v>
+      </c>
+      <c r="J5" t="str">
+        <v>7</v>
+      </c>
+      <c r="K5" t="str">
+        <v>2</v>
+      </c>
+      <c r="L5" t="str">
+        <v>7</v>
+      </c>
+      <c r="M5" t="str">
+        <v>2</v>
+      </c>
+      <c r="N5" t="str">
+        <v>7</v>
+      </c>
+      <c r="O5" t="str">
+        <v>6</v>
+      </c>
+      <c r="P5" t="str">
+        <v>6</v>
+      </c>
+      <c r="Q5" t="str">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>5</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="U5" s="1">
+        <v>6</v>
+      </c>
+      <c r="V5" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="W5" t="str">
+        <v>2025-08-25T09:05:04.676Z</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>3d96bf6f-f72d-4e06-aa32-84d6ed57e404</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" t="str">
+        <v xml:space="preserve">Kaniz Fatima Nijum </v>
+      </c>
+      <c r="D6" s="1">
+        <v>26</v>
+      </c>
+      <c r="E6" t="str">
+        <v>Doctor</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Urban</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Female</v>
+      </c>
+      <c r="H6" t="str">
+        <v>1</v>
+      </c>
+      <c r="I6" t="str">
+        <v>1</v>
+      </c>
+      <c r="J6" t="str">
+        <v>1</v>
+      </c>
+      <c r="K6" t="str">
+        <v>2</v>
+      </c>
+      <c r="L6" t="str">
+        <v>1</v>
+      </c>
+      <c r="M6" t="str">
+        <v>2</v>
+      </c>
+      <c r="N6" t="str">
+        <v>1</v>
+      </c>
+      <c r="O6" t="str">
+        <v>2</v>
+      </c>
+      <c r="P6" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q6" t="str">
+        <v>2</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="S6" s="1">
+        <v>4</v>
+      </c>
+      <c r="T6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="U6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="W6" t="str">
+        <v>2025-09-03T03:04:09.788Z</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>a69404a2-81ee-4987-a1e9-05ea03d6a52c</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17</v>
+      </c>
+      <c r="C7" t="str">
+        <v>test009</v>
+      </c>
+      <c r="D7" s="1">
+        <v>23</v>
+      </c>
+      <c r="E7" t="str">
+        <v>dd</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Urban</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Male</v>
+      </c>
+      <c r="H7" t="str">
+        <v>1</v>
+      </c>
+      <c r="I7" t="str">
+        <v>1</v>
+      </c>
+      <c r="J7" t="str">
+        <v>1</v>
+      </c>
+      <c r="K7" t="str">
+        <v>1</v>
+      </c>
+      <c r="L7" t="str">
+        <v>1</v>
+      </c>
+      <c r="M7" t="str">
+        <v>1</v>
+      </c>
+      <c r="N7" t="str">
+        <v>1</v>
+      </c>
+      <c r="O7" t="str">
+        <v>1</v>
+      </c>
+      <c r="P7" t="str">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="str">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <v>4</v>
+      </c>
+      <c r="U7" s="1">
+        <v>4</v>
+      </c>
+      <c r="V7" s="1">
+        <v>4</v>
+      </c>
+      <c r="W7" t="str">
+        <v>2025-09-03T03:12:55.372Z</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:W4"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:W7"/>
   </ignoredErrors>
 </worksheet>
 </file>